--- a/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/з_пробілами/частоти_біграм_не_перетинаючі_з_пробілами.xlsx
+++ b/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/з_пробілами/частоти_біграм_не_перетинаючі_з_пробілами.xlsx
@@ -448,341 +448,341 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ми</t>
+          <t xml:space="preserve">о </t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002895205360201738</v>
+        <v>0.02077752129983769</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ха</t>
+          <t xml:space="preserve">а </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0005082756257968133</v>
+        <v>0.01739088922961141</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ил</t>
+          <t xml:space="preserve"> п</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006222866225225073</v>
+        <v>0.01674501412500772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>аф</t>
+          <t xml:space="preserve">е </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000207803294524664</v>
+        <v>0.01603174335731496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ан</t>
+          <t xml:space="preserve">и </t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005192274210487889</v>
+        <v>0.0158744868101071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ас</t>
+          <t xml:space="preserve"> в</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004077437616889354</v>
+        <v>0.01580709114701802</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ье</t>
+          <t xml:space="preserve"> н</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000848062093870926</v>
+        <v>0.01486074371114219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ви</t>
+          <t xml:space="preserve"> с</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0037039533172707</v>
+        <v>0.01466136487450366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>чб</t>
+          <t>то</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>0.01328537008643494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ул</t>
+          <t xml:space="preserve"> и</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002252138408226764</v>
+        <v>0.010918097420431</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>га</t>
+          <t>но</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002252138408226764</v>
+        <v>0.00982010974260473</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ко</t>
+          <t xml:space="preserve"> о</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.008219462744239075</v>
+        <v>0.009572992311278103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>вм</t>
+          <t xml:space="preserve"> к</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001291750209207371</v>
+        <v>0.0092837525905208</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>те</t>
+          <t xml:space="preserve">ь </t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005661235699482738</v>
+        <v>0.009134920501199082</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">р </t>
+          <t>ст</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001468663824816206</v>
+        <v>0.009101222669654541</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">и </t>
+          <t>по</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0158744868101071</v>
+        <v>0.009095606364397118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ма</t>
+          <t>на</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003470876649087631</v>
+        <v>0.009089990059139694</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>рг</t>
+          <t xml:space="preserve">я </t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0009744289621629515</v>
+        <v>0.009045059617080308</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ар</t>
+          <t>не</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004377909948161503</v>
+        <v>0.008949582427704111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ит</t>
+          <t>ал</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.004069013159003218</v>
+        <v>0.008710889454263617</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ат</t>
+          <t>ко</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.004832830674012794</v>
+        <v>0.008219462744239075</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ек</t>
+          <t xml:space="preserve">й </t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.001522018724761728</v>
+        <v>0.007803856155189747</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ст</t>
+          <t xml:space="preserve">л </t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.009101222669654541</v>
+        <v>0.007778582781531341</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> п</t>
+          <t>ро</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01674501412500772</v>
+        <v>0.007761733865759072</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>еч</t>
+          <t>го</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.001058673541024302</v>
+        <v>0.007438796313457229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ае</t>
+          <t>ла</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.001081138762053995</v>
+        <v>0.007377016955625572</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>тс</t>
+          <t>ра</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0007638175150095758</v>
+        <v>0.007329278360937473</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">я </t>
+          <t xml:space="preserve"> т</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.009045059617080308</v>
+        <v>0.007323662055680051</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">в </t>
+          <t xml:space="preserve">м </t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.006812578277254525</v>
+        <v>0.007228184866303854</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>по</t>
+          <t>ка</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.009095606364397118</v>
+        <v>0.007174829966358332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>сл</t>
+          <t>ни</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002628430860474128</v>
+        <v>0.00712147506641281</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ед</t>
+          <t>ов</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.002900821665459161</v>
+        <v>0.006910863619259434</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>не</t>
+          <t xml:space="preserve">в </t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.008949582427704111</v>
+        <v>0.006812578277254525</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">й </t>
+          <t>ер</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.007803856155189747</v>
+        <v>0.006593542372215015</v>
       </c>
     </row>
     <row r="36">
@@ -798,2941 +798,2941 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>иж</t>
+          <t>от</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0002415011260692041</v>
+        <v>0.006402587993462621</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>из</t>
+          <t>ен</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.002100498166276334</v>
+        <v>0.006309918956715135</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>нн</t>
+          <t>ва</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.003010339617978916</v>
+        <v>0.006290261888314153</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ой</t>
+          <t>во</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.003841552796077573</v>
+        <v>0.006256564056769613</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> р</t>
+          <t>ло</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.003880866932879536</v>
+        <v>0.006256564056769613</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ак</t>
+          <t>ор</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.004198188179923955</v>
+        <v>0.006248139598883478</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ци</t>
+          <t xml:space="preserve">у </t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0002695826523563209</v>
+        <v>0.006242523293626056</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ру</t>
+          <t>ил</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.002473982465894986</v>
+        <v>0.006222866225225073</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>пи</t>
+          <t>ол</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001238395309261849</v>
+        <v>0.006220058072596362</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>си</t>
+          <t xml:space="preserve"> б</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.001771944308717067</v>
+        <v>0.00621724991996765</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> х</t>
+          <t>ли</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.001120452898855959</v>
+        <v>0.006172319477908263</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ра</t>
+          <t>ел</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.007329278360937473</v>
+        <v>0.005922393893952924</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ня</t>
+          <t xml:space="preserve"> м</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.001443390451157801</v>
+        <v>0.005902736825551942</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>сн</t>
+          <t>ом</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0008340213307273677</v>
+        <v>0.005742672125715377</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ом</t>
+          <t>ри</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.005742672125715377</v>
+        <v>0.005694933531027279</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> о</t>
+          <t xml:space="preserve">т </t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.009572992311278103</v>
+        <v>0.005678084615255008</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>тд</t>
+          <t>те</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0001741054629801239</v>
+        <v>0.005661235699482738</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ел</t>
+          <t>ос</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005922393893952924</v>
+        <v>0.00559664818902237</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">е </t>
+          <t>та</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01603174335731496</v>
+        <v>0.005568566662735253</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>го</t>
+          <t>ре</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.007438796313457229</v>
+        <v>0.00556295035747783</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>су</t>
+          <t>ве</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0007694338202669991</v>
+        <v>0.00551240361016102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>да</t>
+          <t>за</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.004341403963988251</v>
+        <v>0.005459048710215498</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>рс</t>
+          <t>он</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0001516402419504305</v>
+        <v>0.005310216620893779</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>тв</t>
+          <t>ет</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.001982555755870443</v>
+        <v>0.005242820957804699</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ен</t>
+          <t xml:space="preserve"> ч</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.006309918956715135</v>
+        <v>0.005203506821002736</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>но</t>
+          <t>ан</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.00982010974260473</v>
+        <v>0.005192274210487889</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>би</t>
+          <t xml:space="preserve"> д</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0007160789203214773</v>
+        <v>0.005192274210487889</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>бл</t>
+          <t>ат</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0005981365099155869</v>
+        <v>0.004832830674012794</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ио</t>
+          <t>  </t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.000407182131163193</v>
+        <v>0.004580096937428743</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ки</t>
+          <t xml:space="preserve"> з</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.002996298854835358</v>
+        <v>0.00450708496908224</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> с</t>
+          <t>ть</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01466136487450366</v>
+        <v>0.004501468663824816</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>сс</t>
+          <t>ле</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.000935114825360988</v>
+        <v>0.004464962679651564</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>им</t>
+          <t>од</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.002451517244865293</v>
+        <v>0.004459346374394141</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ле</t>
+          <t>ог</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.004464962679651564</v>
+        <v>0.004408799627077331</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ни</t>
+          <t>ар</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.00712147506641281</v>
+        <v>0.004377909948161503</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>на</t>
+          <t>да</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.009089990059139694</v>
+        <v>0.004341403963988251</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> а</t>
+          <t xml:space="preserve"> г</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.00266493684464738</v>
+        <v>0.004316130590329845</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> т</t>
+          <t xml:space="preserve"> у</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.007323662055680051</v>
+        <v>0.004248734927240766</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>же</t>
+          <t>ак</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.002923286886488854</v>
+        <v>0.004198188179923955</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> и</t>
+          <t xml:space="preserve">к </t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.010918097420431</v>
+        <v>0.004080245769518064</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>сп</t>
+          <t>ас</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.001639961135167619</v>
+        <v>0.004077437616889354</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>вл</t>
+          <t>ит</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0005560142204849118</v>
+        <v>0.004069013159003218</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ия</t>
+          <t>ес</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.001027783862108473</v>
+        <v>0.003976344122255733</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> д</t>
+          <t>ск</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.005192274210487889</v>
+        <v>0.00397072781699831</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>оп</t>
+          <t>аз</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.001401268161727126</v>
+        <v>0.003903332153909229</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ол</t>
+          <t>де</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.006220058072596362</v>
+        <v>0.003897715848651806</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ям</t>
+          <t xml:space="preserve"> р</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.0003173212470444193</v>
+        <v>0.003880866932879536</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>сд</t>
+          <t>ся</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0002471174313266274</v>
+        <v>0.003866826169735977</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ны</t>
+          <t>ой</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.003293963033478796</v>
+        <v>0.003841552796077573</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>од</t>
+          <t>ем</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.004459346374394141</v>
+        <v>0.003746075606701376</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ик</t>
+          <t>ви</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.002693018370934497</v>
+        <v>0.0037039533172707</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>то</t>
+          <t xml:space="preserve">ы </t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01328537008643494</v>
+        <v>0.003692720706755854</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>вк</t>
+          <t>че</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0002471174313266274</v>
+        <v>0.003664639180468737</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">у </t>
+          <t>ну</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.006242523293626056</v>
+        <v>0.003628133196295485</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>са</t>
+          <t>ма</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.001684891577227005</v>
+        <v>0.003470876649087631</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ля</t>
+          <t>ль</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.001252436072405407</v>
+        <v>0.00343437066491438</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> е</t>
+          <t>сь</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.002805344476082964</v>
+        <v>0.003428754359656956</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ж</t>
+          <t>ти</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.001805642140261608</v>
+        <v>0.003414713596513397</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> б</t>
+          <t>до</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.00621724991996765</v>
+        <v>0.003316428254508489</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>во</t>
+          <t>ны</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.006256564056769613</v>
+        <v>0.003293963033478796</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>йч</t>
+          <t>ин</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.0001797217682375472</v>
+        <v>0.003190061386216463</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ть</t>
+          <t>ам</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.004501468663824816</v>
+        <v>0.003176020623072905</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ер</t>
+          <t xml:space="preserve">н </t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.006593542372215015</v>
+        <v>0.003161979859929347</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ва</t>
+          <t>ме</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.006290261888314153</v>
+        <v>0.003142322791528365</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ят</t>
+          <t>об</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.001283325751321236</v>
+        <v>0.00306650267055315</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> к</t>
+          <t>ег</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0092837525905208</v>
+        <v>0.00304965375478088</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">ы </t>
+          <t>чт</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.003692720706755854</v>
+        <v>0.00303280483900861</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">ц </t>
+          <t>нн</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.0003566353838463828</v>
+        <v>0.003010339617978916</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ч</t>
+          <t>ки</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.005203506821002736</v>
+        <v>0.002996298854835358</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ыч</t>
+          <t>тр</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.0001684891577227005</v>
+        <v>0.002940135802261125</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> в</t>
+          <t>же</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.01580709114701802</v>
+        <v>0.002923286886488854</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>оч</t>
+          <t>ис</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.001696124187741852</v>
+        <v>0.002920478733860143</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ет</t>
+          <t>ед</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.005242820957804699</v>
+        <v>0.002900821665459161</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>зл</t>
+          <t>ми</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.0003229375523018427</v>
+        <v>0.002895205360201738</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">а </t>
+          <t>се</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.01739088922961141</v>
+        <v>0.002855891223399774</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ве</t>
+          <t xml:space="preserve">х </t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.00551240361016102</v>
+        <v>0.002808152628711676</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>чн</t>
+          <t xml:space="preserve"> е</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.0007638175150095758</v>
+        <v>0.002805344476082964</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">о </t>
+          <t>мо</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.02077752129983769</v>
+        <v>0.002794111865568117</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>со</t>
+          <t xml:space="preserve">с </t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.002541378128984066</v>
+        <v>0.002791303712939406</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>рш</t>
+          <t>бы</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.0004493044205938681</v>
+        <v>0.002768838491909712</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">т </t>
+          <t>ив</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.005678084615255008</v>
+        <v>0.002766030339281</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>аг</t>
+          <t xml:space="preserve"> л</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.0009519637411332581</v>
+        <v>0.002729524355107749</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ог</t>
+          <t>ик</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.004408799627077331</v>
+        <v>0.002693018370934497</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>фа</t>
+          <t>ок</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.0002583500418414742</v>
+        <v>0.002667744997276092</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ус</t>
+          <t xml:space="preserve"> а</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.001207505630346021</v>
+        <v>0.00266493684464738</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>тг</t>
+          <t>сл</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>0.002628430860474128</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ла</t>
+          <t xml:space="preserve">ю </t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.007377016955625572</v>
+        <v>0.002561035197385048</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> н</t>
+          <t>со</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.01486074371114219</v>
+        <v>0.002541378128984066</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>зг</t>
+          <t>ав</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.0003060886365295726</v>
+        <v>0.002535761823726643</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ов</t>
+          <t>вы</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.006910863619259434</v>
+        <v>0.002518912907954373</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ив</t>
+          <t>ру</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.002766030339281</v>
+        <v>0.002473982465894986</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ай</t>
+          <t>им</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.0006037528151730103</v>
+        <v>0.002451517244865293</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>еи</t>
+          <t>эт</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.0001741054629801239</v>
+        <v>0.002400970497548483</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>зв</t>
+          <t xml:space="preserve"> э</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.001165383340915346</v>
+        <v>0.002375697123890078</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ес</t>
+          <t>бе</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.003976344122255733</v>
+        <v>0.002274603629256457</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>тн</t>
+          <t>ад</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.001283325751321236</v>
+        <v>0.002274603629256457</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ым</t>
+          <t>ул</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.001165383340915346</v>
+        <v>0.002252138408226764</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>дн</t>
+          <t>га</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.001861805192835841</v>
+        <v>0.002252138408226764</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>аж</t>
+          <t>вс</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.001086755067311419</v>
+        <v>0.002137004150449585</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ды</t>
+          <t>ку</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.0004689614889948499</v>
+        <v>0.002131387845192162</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">ю </t>
+          <t>ев</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.002561035197385048</v>
+        <v>0.00212857969256345</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ча</t>
+          <t>кр</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.00209488186101891</v>
+        <v>0.002120155234677315</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">с </t>
+          <t>из</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.002791303712939406</v>
+        <v>0.002100498166276334</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>бы</t>
+          <t>ча</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.002768838491909712</v>
+        <v>0.00209488186101891</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ло</t>
+          <t>пе</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.006256564056769613</v>
+        <v>0.00209488186101891</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> з</t>
+          <t>ая</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.00450708496908224</v>
+        <v>0.002052759571588235</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>мо</t>
+          <t>ше</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.002794111865568117</v>
+        <v>0.00202748619792983</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ск</t>
+          <t>тв</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.00397072781699831</v>
+        <v>0.001982555755870443</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>па</t>
+          <t>ди</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.001707356798256699</v>
+        <v>0.001971323145355597</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>тр</t>
+          <t>ту</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.002940135802261125</v>
+        <v>0.001954474229583326</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>иа</t>
+          <t>бо</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.0002218440576682224</v>
+        <v>0.001934817161182345</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>их</t>
+          <t>лс</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.001420925230128108</v>
+        <v>0.001873037803350688</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">х </t>
+          <t>дн</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.002808152628711676</v>
+        <v>0.001861805192835841</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>яв</t>
+          <t>ыл</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.0004324555048215981</v>
+        <v>0.001839339971806148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ис</t>
+          <t>уд</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.002920478733860143</v>
+        <v>0.001825299208662589</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">ь </t>
+          <t xml:space="preserve"> ж</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.009134920501199082</v>
+        <v>0.001805642140261608</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>дв</t>
+          <t>ей</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.000926690367474853</v>
+        <v>0.001780368766603202</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>гр</t>
+          <t>ши</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.001325448040751911</v>
+        <v>0.001780368766603202</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>вы</t>
+          <t>си</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.002518912907954373</v>
+        <v>0.001771944308717067</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>де</t>
+          <t>ый</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.003897715848651806</v>
+        <v>0.001749479087687374</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ты</t>
+          <t>хо</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.001443390451157801</v>
+        <v>0.001721397561400257</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>юю</t>
+          <t>па</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>5.054674731681016e-05</v>
+        <v>0.001707356798256699</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ьк</t>
+          <t>му</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.0009210740622174297</v>
+        <v>0.001701740492999275</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ую</t>
+          <t>оч</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.0009884697253065098</v>
+        <v>0.001696124187741852</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">л </t>
+          <t>са</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.007778582781531341</v>
+        <v>0.001684891577227005</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>нь</t>
+          <t>сп</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.0009126496043312946</v>
+        <v>0.001639961135167619</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ос</t>
+          <t>ож</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.00559664818902237</v>
+        <v>0.001639961135167619</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>та</t>
+          <t>ие</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.005568566662735253</v>
+        <v>0.001631536677281484</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> у</t>
+          <t>ий</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.004248734927240766</v>
+        <v>0.00162592037202406</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">н </t>
+          <t>ут</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.003161979859929347</v>
+        <v>0.001620304066766637</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>лы</t>
+          <t>ич</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.0008059398044402509</v>
+        <v>0.001614687761509214</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>св</t>
+          <t>чи</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.001471471977444918</v>
+        <v>0.00155852470893498</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ою</t>
+          <t xml:space="preserve">з </t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.0003762924522473645</v>
+        <v>0.001555716556306268</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ри</t>
+          <t>гл</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.005694933531027279</v>
+        <v>0.001536059487905287</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ли</t>
+          <t xml:space="preserve"> я</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.006172319477908263</v>
+        <v>0.001527635030019152</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ш</t>
+          <t>ек</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.001010934946336203</v>
+        <v>0.001522018724761728</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>пу</t>
+          <t>ое</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.0007806664307818458</v>
+        <v>0.001496745351103323</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ир</t>
+          <t>св</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.001159767035657922</v>
+        <v>0.001471471977444918</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ож</t>
+          <t xml:space="preserve">р </t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.001639961135167619</v>
+        <v>0.001468663824816206</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">м </t>
+          <t xml:space="preserve">д </t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.007228184866303854</v>
+        <v>0.001468663824816206</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ке</t>
+          <t>оз</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.0007947071939254042</v>
+        <v>0.001465855672187495</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>хо</t>
+          <t>ня</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.001721397561400257</v>
+        <v>0.001443390451157801</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ро</t>
+          <t>ты</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.007761733865759072</v>
+        <v>0.001443390451157801</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>шо</t>
+          <t>ду</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.0002527337365840508</v>
+        <v>0.001443390451157801</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ыб</t>
+          <t>ид</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.0002780071102424559</v>
+        <v>0.001437774145900378</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>це</t>
+          <t>их</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.0007890908886679809</v>
+        <v>0.001420925230128108</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ещ</t>
+          <t>оп</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.0005840957467720285</v>
+        <v>0.001401268161727126</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ал</t>
+          <t>ез</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.008710889454263617</v>
+        <v>0.001398460009098415</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>хь</t>
+          <t>зн</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>0.001353529567039028</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ых</t>
+          <t>ьн</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.0009042251464451596</v>
+        <v>0.001333872498638046</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>аз</t>
+          <t>ры</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.003903332153909229</v>
+        <v>0.001331064346009334</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ме</t>
+          <t>гр</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.003142322791528365</v>
+        <v>0.001325448040751911</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>чи</t>
+          <t>жа</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.00155852470893498</v>
+        <v>0.001322639888123199</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ый</t>
+          <t>лу</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.001749479087687374</v>
+        <v>0.001288942056578659</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ыж</t>
+          <t>ят</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>7.301196834650356e-05</v>
+        <v>0.001283325751321236</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ев</t>
+          <t>тн</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.00212857969256345</v>
+        <v>0.001283325751321236</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> м</t>
+          <t>мн</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.005902736825551942</v>
+        <v>0.001260860530291542</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>за</t>
+          <t>ля</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.005459048710215498</v>
+        <v>0.001252436072405407</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">к </t>
+          <t>ее</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.004080245769518064</v>
+        <v>0.001249627919776696</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>кл</t>
+          <t>пи</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.0008284050254699443</v>
+        <v>0.001238395309261849</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>пк</t>
+          <t>бу</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.0001010934946336203</v>
+        <v>0.001221546393489579</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ыл</t>
+          <t>ус</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.001839339971806148</v>
+        <v>0.001207505630346021</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>бо</t>
+          <t>ще</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.001934817161182345</v>
+        <v>0.001199081172459886</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>йк</t>
+          <t>еп</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.0001628728524652772</v>
+        <v>0.00117380779880148</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>бе</t>
+          <t>уж</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.002274603629256457</v>
+        <v>0.001168191493544057</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>бр</t>
+          <t>зв</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.001036208319994608</v>
+        <v>0.001165383340915346</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>юк</t>
+          <t>ым</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>3.931413680196346e-05</v>
+        <v>0.001165383340915346</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ах</t>
+          <t>ир</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.00114010996725694</v>
+        <v>0.001159767035657922</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>чк</t>
+          <t>ах</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.0004886185573958315</v>
+        <v>0.00114010996725694</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>пе</t>
+          <t xml:space="preserve"> х</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.00209488186101891</v>
+        <v>0.001120452898855959</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>рв</t>
+          <t>жи</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.0005251245415690834</v>
+        <v>0.001092371372568842</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>кт</t>
+          <t>аж</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.0006879973940343606</v>
+        <v>0.001086755067311419</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ин</t>
+          <t>ае</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.003190061386216463</v>
+        <v>0.001081138762053995</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>аи</t>
+          <t>еч</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.000320129399673131</v>
+        <v>0.001058673541024302</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>нд</t>
+          <t>щи</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.000831213178098656</v>
+        <v>0.00105586538839559</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">ч </t>
+          <t>ря</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.0005869038994007402</v>
+        <v>0.001053057235766878</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>рл</t>
+          <t>бр</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.0002864315681285909</v>
+        <v>0.001036208319994608</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">з </t>
+          <t>ша</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.001555716556306268</v>
+        <v>0.001030592014737185</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>се</t>
+          <t>ия</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.002855891223399774</v>
+        <v>0.001027783862108473</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ль</t>
+          <t>ач</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.00343437066491438</v>
+        <v>0.00102216755685105</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>кр</t>
+          <t xml:space="preserve"> ш</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.002120155234677315</v>
+        <v>0.001010934946336203</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>уп</t>
+          <t>ую</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.0006430669519749738</v>
+        <v>0.0009884697253065098</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>йш</t>
+          <t>рг</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.0002218440576682224</v>
+        <v>0.0009744289621629515</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>вс</t>
+          <t>ур</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.002137004150449585</v>
+        <v>0.0009744289621629515</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ту</t>
+          <t>ук</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.001954474229583326</v>
+        <v>0.0009716208095342399</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>рн</t>
+          <t>вш</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.0009519637411332581</v>
+        <v>0.0009603881990193931</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>оц</t>
+          <t>иц</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.0001375994788068721</v>
+        <v>0.0009603881990193931</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ащ</t>
+          <t>ба</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.0003454027733315361</v>
+        <v>0.0009603881990193931</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ну</t>
+          <t>аг</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.003628133196295485</v>
+        <v>0.0009519637411332581</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ем</t>
+          <t>рн</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.003746075606701376</v>
+        <v>0.0009519637411332581</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ре</t>
+          <t>сс</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.00556295035747783</v>
+        <v>0.000935114825360988</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ор</t>
+          <t>дв</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.006248139598883478</v>
+        <v>0.000926690367474853</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ху</t>
+          <t>ьк</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.0002246522102969341</v>
+        <v>0.0009210740622174297</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>до</t>
+          <t>ум</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.003316428254508489</v>
+        <v>0.0009210740622174297</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>жу</t>
+          <t>др</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.0002021869892672406</v>
+        <v>0.0009154577569600063</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ут</t>
+          <t>нь</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.001620304066766637</v>
+        <v>0.0009126496043312946</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ег</t>
+          <t>рт</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.00304965375478088</v>
+        <v>0.0009126496043312946</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>оэ</t>
+          <t>ых</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.0001572565472078538</v>
+        <v>0.0009042251464451596</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>шу</t>
+          <t>еб</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.0003959495206483463</v>
+        <v>0.0009042251464451596</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>щи</t>
+          <t>уг</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.00105586538839559</v>
+        <v>0.0009014169938164479</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">д </t>
+          <t>ап</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.001468663824816206</v>
+        <v>0.0008986088411877363</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>пс</t>
+          <t>пл</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>3.369783154454011e-05</v>
+        <v>0.0008929925359303129</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>зд</t>
+          <t>вн</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.0008592947043857727</v>
+        <v>0.0008761436201580429</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>йп</t>
+          <t>ые</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1.404076314355838e-05</v>
+        <v>0.0008677191622719078</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ав</t>
+          <t>зд</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.002535761823726643</v>
+        <v>0.0008592947043857727</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>чу</t>
+          <t>ыв</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.0004942348626532549</v>
+        <v>0.0008508702464996377</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ею</t>
+          <t>ье</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.0001712973103514122</v>
+        <v>0.000848062093870926</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve">п </t>
+          <t>гд</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>4.773859468809848e-05</v>
+        <v>0.000848062093870926</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>лг</t>
+          <t>сн</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.0001207505630346021</v>
+        <v>0.0008340213307273677</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>сь</t>
+          <t>ух</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.003428754359656956</v>
+        <v>0.0008340213307273677</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ше</t>
+          <t>нд</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.00202748619792983</v>
+        <v>0.000831213178098656</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>уд</t>
+          <t>кл</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.001825299208662589</v>
+        <v>0.0008284050254699443</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ад</t>
+          <t>нт</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.002274603629256457</v>
+        <v>0.0008255968728412326</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ыд</t>
+          <t>ял</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>8.705273149006194e-05</v>
+        <v>0.0008255968728412326</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>уе</t>
+          <t>аш</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.0001656810050939889</v>
+        <v>0.0008143642623263859</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>от</t>
+          <t>лы</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.006402587993462621</v>
+        <v>0.0008059398044402509</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ти</t>
+          <t>ке</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.003414713596513397</v>
+        <v>0.0007947071939254042</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ву</t>
+          <t>це</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.0006318343414601271</v>
+        <v>0.0007890908886679809</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> э</t>
+          <t>пу</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.002375697123890078</v>
+        <v>0.0007806664307818458</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>аш</t>
+          <t>яс</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.0008143642623263859</v>
+        <v>0.0007722419728957108</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>че</t>
+          <t>су</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.003664639180468737</v>
+        <v>0.0007694338202669991</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>лл</t>
+          <t>тс</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.0004324555048215981</v>
+        <v>0.0007638175150095758</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ьн</t>
+          <t>чн</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.001333872498638046</v>
+        <v>0.0007638175150095758</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ок</t>
+          <t>ош</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.002667744997276092</v>
+        <v>0.0007638175150095758</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ка</t>
+          <t>аю</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.007174829966358332</v>
+        <v>0.0007497767518660174</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t xml:space="preserve">ж </t>
+          <t>еж</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.0002639663470988975</v>
+        <v>0.0007497767518660174</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ша</t>
+          <t>тк</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.001030592014737185</v>
+        <v>0.0007301196834650356</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>нц</t>
+          <t>уч</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.0002892397207573026</v>
+        <v>0.0007188870729501889</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>кв</t>
+          <t>би</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.0005672468309997585</v>
+        <v>0.0007160789203214773</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ку</t>
+          <t xml:space="preserve"> ф</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.002131387845192162</v>
+        <v>0.0007076544624353422</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>цо</t>
+          <t>ои</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.0002667744997276092</v>
+        <v>0.0007048463098066306</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>  </t>
+          <t>лю</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.004580096937428743</v>
+        <v>0.0007020381571779189</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>пы</t>
+          <t>ув</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.0003622516891038061</v>
+        <v>0.0006992300045492073</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ея</t>
+          <t>жд</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.0001628728524652772</v>
+        <v>0.0006936136992917839</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>оз</t>
+          <t>мы</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.001465855672187495</v>
+        <v>0.0006936136992917839</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>нщ</t>
+          <t>кт</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.0001684891577227005</v>
+        <v>0.0006879973940343606</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>бу</t>
+          <t>ца</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.001221546393489579</v>
+        <v>0.0006851892414056488</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>му</t>
+          <t>кн</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.001701740492999275</v>
+        <v>0.0006823810887769372</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>пл</t>
+          <t>ьс</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.0008929925359303129</v>
+        <v>0.0006739566308908021</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> г</t>
+          <t>ыс</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.004316130590329845</v>
+        <v>0.0006711484782620905</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ся</t>
+          <t>еш</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.003866826169735977</v>
+        <v>0.0006655321730046672</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ез</t>
+          <t>зо</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.001398460009098415</v>
+        <v>0.0006655321730046672</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>мн</t>
+          <t>уб</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.001260860530291542</v>
+        <v>0.0006655321730046672</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>чт</t>
+          <t>уш</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.00303280483900861</v>
+        <v>0.0006542995624898205</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>аб</t>
+          <t>ги</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.0005532060678562001</v>
+        <v>0.0006542995624898205</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>еп</t>
+          <t>уп</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.00117380779880148</v>
+        <v>0.0006430669519749738</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>йт</t>
+          <t>жн</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.0003875250627622112</v>
+        <v>0.0006346424940888387</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>еа</t>
+          <t>ву</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.0001600646998365655</v>
+        <v>0.0006318343414601271</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ая</t>
+          <t>зе</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.002052759571588235</v>
+        <v>0.0006177935783165686</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>об</t>
+          <t>рь</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.00306650267055315</v>
+        <v>0.0006121772730591453</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ду</t>
+          <t>яд</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.001443390451157801</v>
+        <v>0.0006093691204304337</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>хе</t>
+          <t>вр</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>5.335489994552184e-05</v>
+        <v>0.0006065609678017219</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ап</t>
+          <t>ай</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.0008986088411877363</v>
+        <v>0.0006037528151730103</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>вш</t>
+          <t>дь</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.0009603881990193931</v>
+        <v>0.0006037528151730103</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ры</t>
+          <t>бл</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.001331064346009334</v>
+        <v>0.0005981365099155869</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>лю</t>
+          <t>см</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.0007020381571779189</v>
+        <v>0.0005925202046581636</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>аю</t>
+          <t xml:space="preserve">ч </t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.0007497767518660174</v>
+        <v>0.0005869038994007402</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ща</t>
+          <t>ещ</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.0004549207258512915</v>
+        <v>0.0005840957467720285</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>яс</t>
+          <t>кв</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.0007722419728957108</v>
+        <v>0.0005672468309997585</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>он</t>
+          <t>вл</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.005310216620893779</v>
+        <v>0.0005560142204849118</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>пн</t>
+          <t>нс</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.0002499255839553391</v>
+        <v>0.0005560142204849118</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>дц</t>
+          <t>аб</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.0001909543787523939</v>
+        <v>0.0005532060678562001</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ук</t>
+          <t>ян</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.0009716208095342399</v>
+        <v>0.0005532060678562001</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>мг</t>
+          <t>ыт</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>7.862827360392692e-05</v>
+        <v>0.0005532060678562001</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>иг</t>
+          <t>ун</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.0004605370311087148</v>
+        <v>0.0005307408468265067</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ей</t>
+          <t>рв</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.001780368766603202</v>
+        <v>0.0005251245415690834</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>хв</t>
+          <t>иб</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.0001769136156088356</v>
+        <v>0.0005167000836829483</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ео</t>
+          <t>вь</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.000216227752410799</v>
+        <v>0.000511083778425525</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>тч</t>
+          <t>ха</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.0003931413680196346</v>
+        <v>0.0005082756257968133</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>жа</t>
+          <t>оя</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.001322639888123199</v>
+        <v>0.0004998511679106782</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ши</t>
+          <t>чу</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.001780368766603202</v>
+        <v>0.0004942348626532549</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>дк</t>
+          <t>лн</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.0003088967891582843</v>
+        <v>0.0004942348626532549</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>гл</t>
+          <t>чк</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.001536059487905287</v>
+        <v>0.0004886185573958315</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ян</t>
+          <t>мя</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.0005532060678562001</v>
+        <v>0.0004886185573958315</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t xml:space="preserve">б </t>
+          <t>ох</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.0002021869892672406</v>
+        <v>0.0004886185573958315</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>эт</t>
+          <t>фе</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.002400970497548483</v>
+        <v>0.0004886185573958315</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>гд</t>
+          <t>зи</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.000848062093870926</v>
+        <v>0.0004773859468809849</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>рд</t>
+          <t>гу</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.0002246522102969341</v>
+        <v>0.0004745777942522732</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> я</t>
+          <t>ии</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.001527635030019152</v>
+        <v>0.0004745777942522732</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>еу</t>
+          <t>ыш</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.0001628728524652772</v>
+        <v>0.0004745777942522732</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>лс</t>
+          <t>шл</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.001873037803350688</v>
+        <v>0.0004717696416235615</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>лу</t>
+          <t>ды</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.001288942056578659</v>
+        <v>0.0004689614889948499</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>дс</t>
+          <t>ющ</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.0003510190785889594</v>
+        <v>0.0004633451837374265</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>йн</t>
+          <t>иг</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.0003734842996186528</v>
+        <v>0.0004605370311087148</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>сг</t>
+          <t>ща</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>3.931413680196346e-05</v>
+        <v>0.0004549207258512915</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>тк</t>
+          <t>рш</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.0007301196834650356</v>
+        <v>0.0004493044205938681</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ух</t>
+          <t>тя</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.0008340213307273677</v>
+        <v>0.0004464962679651565</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>жд</t>
+          <t>иш</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.0006936136992917839</v>
+        <v>0.0004408799627077331</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>жо</t>
+          <t xml:space="preserve">г </t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>6.739566308908021e-05</v>
+        <v>0.0004408799627077331</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>йс</t>
+          <t>зу</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.0003875250627622112</v>
+        <v>0.0004352636574503098</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>рт</t>
+          <t>яв</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.0009126496043312946</v>
+        <v>0.0004324555048215981</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>уз</t>
+          <t>лл</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.0003145130944157077</v>
+        <v>0.0004324555048215981</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ур</t>
+          <t>шк</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.0009744289621629515</v>
+        <v>0.0004324555048215981</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>гу</t>
+          <t>ге</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.0004745777942522732</v>
+        <v>0.0004324555048215981</v>
       </c>
     </row>
     <row r="331">
@@ -3748,1391 +3748,1391 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>уш</t>
+          <t>ех</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.0006542995624898205</v>
+        <v>0.0004184147416780397</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ид</t>
+          <t>лк</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.001437774145900378</v>
+        <v>0.000415606589049328</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>чо</t>
+          <t>вз</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>7.301196834650356e-05</v>
+        <v>0.0004127984364206163</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>фи</t>
+          <t>рк</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.0003482109259602478</v>
+        <v>0.0004099902837919046</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>зи</t>
+          <t>ио</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.0004773859468809849</v>
+        <v>0.000407182131163193</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ам</t>
+          <t>дл</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.003176020623072905</v>
+        <v>0.0004015658259057696</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ум</t>
+          <t>ья</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.0009210740622174297</v>
+        <v>0.0004015658259057696</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>яж</t>
+          <t>гн</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.0001179424104058904</v>
+        <v>0.0004015658259057696</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>кн</t>
+          <t>шу</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.0006823810887769372</v>
+        <v>0.0003959495206483463</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ыт</t>
+          <t>дя</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.0005532060678562001</v>
+        <v>0.0003959495206483463</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>мя</t>
+          <t>тч</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.0004886185573958315</v>
+        <v>0.0003931413680196346</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ув</t>
+          <t>йт</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.0006992300045492073</v>
+        <v>0.0003875250627622112</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>зе</t>
+          <t>йс</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.0006177935783165686</v>
+        <v>0.0003875250627622112</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>мл</t>
+          <t>ящ</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.0001769136156088356</v>
+        <v>0.0003875250627622112</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>вп</t>
+          <t>ою</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.0002218440576682224</v>
+        <v>0.0003762924522473645</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>уж</t>
+          <t>йн</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.001168191493544057</v>
+        <v>0.0003734842996186528</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>сч</t>
+          <t>пя</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.0002976641786434376</v>
+        <v>0.0003706761469899412</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ао</t>
+          <t>пы</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>5.335489994552184e-05</v>
+        <v>0.0003622516891038061</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ыс</t>
+          <t xml:space="preserve">ц </t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.0006711484782620905</v>
+        <v>0.0003566353838463828</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ца</t>
+          <t>дс</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.0006851892414056488</v>
+        <v>0.0003510190785889594</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ф</t>
+          <t>фи</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.0007076544624353422</v>
+        <v>0.0003482109259602478</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>еш</t>
+          <t>ащ</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.0006655321730046672</v>
+        <v>0.0003454027733315361</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>вр</t>
+          <t>хн</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.0006065609678017219</v>
+        <v>0.0003454027733315361</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>юц</t>
+          <t>шн</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>2.527337365840508e-05</v>
+        <v>0.0003425946207028244</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ац</t>
+          <t>шь</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>7.020381571779189e-05</v>
+        <v>0.0003425946207028244</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ии</t>
+          <t>сы</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.0004745777942522732</v>
+        <v>0.0003397864680741127</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>хн</t>
+          <t>ью</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.0003454027733315361</v>
+        <v>0.0003369783154454011</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ьс</t>
+          <t>хи</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.0006739566308908021</v>
+        <v>0.000328553857559266</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ыг</t>
+          <t>ец</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.0001179424104058904</v>
+        <v>0.0003257457049305544</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ои</t>
+          <t>оф</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.0007048463098066306</v>
+        <v>0.0003257457049305544</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>др</t>
+          <t>зл</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.0009154577569600063</v>
+        <v>0.0003229375523018427</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>чь</t>
+          <t>ьш</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.0002695826523563209</v>
+        <v>0.0003229375523018427</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>дл</t>
+          <t>аи</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.0004015658259057696</v>
+        <v>0.000320129399673131</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ьш</t>
+          <t>бя</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.0003229375523018427</v>
+        <v>0.000320129399673131</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>нт</t>
+          <t>ям</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.0008255968728412326</v>
+        <v>0.0003173212470444193</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>зн</t>
+          <t>уз</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.001353529567039028</v>
+        <v>0.0003145130944157077</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ич</t>
+          <t>бн</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.001614687761509214</v>
+        <v>0.000311704941786996</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ср</t>
+          <t>дк</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0.0001853380734949706</v>
+        <v>0.0003088967891582843</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>вн</t>
+          <t>зг</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.0008761436201580429</v>
+        <v>0.0003060886365295726</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ое</t>
+          <t>ип</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.001496745351103323</v>
+        <v>0.0003004723312721493</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ющ</t>
+          <t>вт</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.0004633451837374265</v>
+        <v>0.0003004723312721493</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ее</t>
+          <t>сч</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.001249627919776696</v>
+        <v>0.0002976641786434376</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t xml:space="preserve"> л</t>
+          <t>нц</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.002729524355107749</v>
+        <v>0.0002892397207573026</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>иц</t>
+          <t xml:space="preserve"> ц</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.0009603881990193931</v>
+        <v>0.0002892397207573026</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>эм</t>
+          <t>рл</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>0.0002864315681285909</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>сю</t>
+          <t>вя</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>9.547718937619697e-05</v>
+        <v>0.0002836234154998792</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ди</t>
+          <t>зр</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0.001971323145355597</v>
+        <v>0.0002808152628711676</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ию</t>
+          <t>ыб</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.0002246522102969341</v>
+        <v>0.0002780071102424559</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>дч</t>
+          <t>ют</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>6.739566308908021e-05</v>
+        <v>0.0002780071102424559</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>бк</t>
+          <t>ци</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0.0001488320893217188</v>
+        <v>0.0002695826523563209</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>зо</t>
+          <t>чь</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0.0006655321730046672</v>
+        <v>0.0002695826523563209</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>жи</t>
+          <t>нк</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0.001092371372568842</v>
+        <v>0.0002695826523563209</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>тя</t>
+          <t>цо</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.0004464962679651565</v>
+        <v>0.0002667744997276092</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ий</t>
+          <t xml:space="preserve">ж </t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.00162592037202406</v>
+        <v>0.0002639663470988975</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>еб</t>
+          <t>вд</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.0009042251464451596</v>
+        <v>0.0002611581944701858</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ох</t>
+          <t>фа</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.0004886185573958315</v>
+        <v>0.0002583500418414742</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t xml:space="preserve">ш </t>
+          <t>ьт</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>7.862827360392692e-05</v>
+        <v>0.0002555418892127625</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ще</t>
+          <t>зм</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.001199081172459886</v>
+        <v>0.0002555418892127625</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>мк</t>
+          <t>ьм</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0.000112326105148467</v>
+        <v>0.0002555418892127625</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>мы</t>
+          <t>шо</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.0006936136992917839</v>
+        <v>0.0002527337365840508</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ык</t>
+          <t>мс</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0.0002049951418959523</v>
+        <v>0.0002527337365840508</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>иф</t>
+          <t>пн</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>8.143642623263859e-05</v>
+        <v>0.0002499255839553391</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ач</t>
+          <t>ыр</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.00102216755685105</v>
+        <v>0.0002499255839553391</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ыв</t>
+          <t>сд</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0.0008508702464996377</v>
+        <v>0.0002471174313266274</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>фл</t>
+          <t>вк</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>8.143642623263859e-05</v>
+        <v>0.0002471174313266274</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>бн</t>
+          <t>фо</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0.000311704941786996</v>
+        <v>0.0002471174313266274</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>иж</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>0.0002415011260692041</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>оо</t>
+          <t>яз</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0.0001853380734949706</v>
+        <v>0.0002415011260692041</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>бщ</t>
+          <t>рю</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0.0001010934946336203</v>
+        <v>0.0002358848208117808</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ял</t>
+          <t>юд</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0.0008255968728412326</v>
+        <v>0.0002358848208117808</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ью</t>
+          <t>рм</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0.0003369783154454011</v>
+        <v>0.0002274603629256457</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ие</t>
+          <t>ощ</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0.001631536677281484</v>
+        <v>0.0002274603629256457</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ые</t>
+          <t>ху</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.0008677191622719078</v>
+        <v>0.0002246522102969341</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>иш</t>
+          <t>рд</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0.0004408799627077331</v>
+        <v>0.0002246522102969341</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>уг</t>
+          <t>ию</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0.0009014169938164479</v>
+        <v>0.0002246522102969341</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>хр</t>
+          <t>ущ</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0.0001797217682375472</v>
+        <v>0.0002246522102969341</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>жн</t>
+          <t>лж</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0.0006346424940888387</v>
+        <v>0.0002246522102969341</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ын</t>
+          <t>иа</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0.0001741054629801239</v>
+        <v>0.0002218440576682224</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>уя</t>
+          <t>йш</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>7.862827360392692e-05</v>
+        <v>0.0002218440576682224</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ги</t>
+          <t>вп</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0.0006542995624898205</v>
+        <v>0.0002218440576682224</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>сы</t>
+          <t>дт</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0.0003397864680741127</v>
+        <v>0.0002218440576682224</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>мм</t>
+          <t>ео</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>8.143642623263859e-05</v>
+        <v>0.000216227752410799</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>цл</t>
+          <t>тл</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>0.000216227752410799</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ип</t>
+          <t>лт</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0.0003004723312721493</v>
+        <v>0.000216227752410799</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>уц</t>
+          <t>ищ</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>0.0002106114471533757</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ря</t>
+          <t>аф</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0.001053057235766878</v>
+        <v>0.000207803294524664</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>уч</t>
+          <t>рж</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0.0007188870729501889</v>
+        <v>0.000207803294524664</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>зу</t>
+          <t>ык</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0.0004352636574503098</v>
+        <v>0.0002049951418959523</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>нк</t>
+          <t>жу</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.0002695826523563209</v>
+        <v>0.0002021869892672406</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>яр</t>
+          <t xml:space="preserve">б </t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0.0001010934946336203</v>
+        <v>0.0002021869892672406</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>тю</t>
+          <t>як</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>7.582012097521524e-05</v>
+        <v>0.000199378836638529</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ц</t>
+          <t>дц</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0.0002892397207573026</v>
+        <v>0.0001909543787523939</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>юм</t>
+          <t>фр</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>5.054674731681016e-05</v>
+        <v>0.0001909543787523939</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ях</t>
+          <t>юс</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0.0001600646998365655</v>
+        <v>0.0001909543787523939</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>шк</t>
+          <t>зя</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0.0004324555048215981</v>
+        <v>0.0001881462261236823</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>шн</t>
+          <t>ср</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0.0003425946207028244</v>
+        <v>0.0001853380734949706</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>юн</t>
+          <t>оо</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>4.493044205938681e-05</v>
+        <v>0.0001853380734949706</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ец</t>
+          <t>рх</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0.0003257457049305544</v>
+        <v>0.0001853380734949706</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>дя</t>
+          <t>уф</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.0003959495206483463</v>
+        <v>0.0001853380734949706</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ьи</t>
+          <t>йч</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>7.862827360392692e-05</v>
+        <v>0.0001797217682375472</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>шь</t>
+          <t>хр</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0.0003425946207028244</v>
+        <v>0.0001797217682375472</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>рк</t>
+          <t>нч</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0.0004099902837919046</v>
+        <v>0.0001797217682375472</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>рч</t>
+          <t>бь</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0.0001741054629801239</v>
+        <v>0.0001797217682375472</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>йм</t>
+          <t>хв</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>3.931413680196346e-05</v>
+        <v>0.0001769136156088356</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>вз</t>
+          <t>мл</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.0004127984364206163</v>
+        <v>0.0001769136156088356</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>рх</t>
+          <t>мп</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0.0001853380734949706</v>
+        <v>0.0001769136156088356</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>кс</t>
+          <t>цы</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0.0001179424104058904</v>
+        <v>0.0001769136156088356</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>лн</t>
+          <t>тд</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0.0004942348626532549</v>
+        <v>0.0001741054629801239</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>сх</t>
+          <t>еи</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0.0001628728524652772</v>
+        <v>0.0001741054629801239</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>щу</t>
+          <t>ын</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.0001488320893217188</v>
+        <v>0.0001741054629801239</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ба</t>
+          <t>рч</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0.0009603881990193931</v>
+        <v>0.0001741054629801239</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>лд</t>
+          <t>ею</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>5.616305257423352e-05</v>
+        <v>0.0001712973103514122</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>дб</t>
+          <t>ню</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>7.020381571779189e-05</v>
+        <v>0.0001712973103514122</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ош</t>
+          <t>ыч</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0.0007638175150095758</v>
+        <v>0.0001684891577227005</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ьт</t>
+          <t>нщ</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0.0002555418892127625</v>
+        <v>0.0001684891577227005</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>фр</t>
+          <t>дш</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0.0001909543787523939</v>
+        <v>0.0001684891577227005</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>тт</t>
+          <t xml:space="preserve"> щ</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>7.020381571779189e-05</v>
+        <v>0.0001684891577227005</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>рж</t>
+          <t>уе</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0.000207803294524664</v>
+        <v>0.0001656810050939889</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>вд</t>
+          <t>йк</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0.0002611581944701858</v>
+        <v>0.0001628728524652772</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t xml:space="preserve">г </t>
+          <t>ея</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0.0004408799627077331</v>
+        <v>0.0001628728524652772</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>мт</t>
+          <t>еу</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>6.739566308908021e-05</v>
+        <v>0.0001628728524652772</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>яд</t>
+          <t>сх</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0.0006093691204304337</v>
+        <v>0.0001628728524652772</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>дш</t>
+          <t>яч</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0.0001684891577227005</v>
+        <v>0.0001628728524652772</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>кц</t>
+          <t>хл</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1.965706840098173e-05</v>
+        <v>0.0001628728524652772</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>яю</t>
+          <t>зб</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0.0001347913261781604</v>
+        <v>0.0001628728524652772</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>дм</t>
+          <t>еа</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0.0001319831735494488</v>
+        <v>0.0001600646998365655</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>еж</t>
+          <t>ях</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0.0007497767518660174</v>
+        <v>0.0001600646998365655</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ья</t>
+          <t>оэ</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0.0004015658259057696</v>
+        <v>0.0001572565472078538</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>зп</t>
+          <t>рс</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>4.773859468809848e-05</v>
+        <v>0.0001516402419504305</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>як</t>
+          <t>зь</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0.000199378836638529</v>
+        <v>0.0001516402419504305</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>бх</t>
+          <t>пт</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>3.650598417325178e-05</v>
+        <v>0.0001516402419504305</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>нр</t>
+          <t>бк</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>5.616305257423352e-05</v>
+        <v>0.0001488320893217188</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ыр</t>
+          <t>щу</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0.0002499255839553391</v>
+        <v>0.0001488320893217188</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ыш</t>
+          <t>цу</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0.0004745777942522732</v>
+        <v>0.0001488320893217188</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>хм</t>
+          <t>вч</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>5.335489994552184e-05</v>
+        <v>0.0001432157840642955</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>бя</t>
+          <t>жк</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0.000320129399673131</v>
+        <v>0.0001432157840642955</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>зк</t>
+          <t>уй</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0.000112326105148467</v>
+        <v>0.0001404076314355838</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>вя</t>
+          <t>ып</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0.0002836234154998792</v>
+        <v>0.0001404076314355838</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>зч</t>
+          <t>оц</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>0.0001375994788068721</v>
       </c>
     </row>
     <row r="471">
@@ -5148,747 +5148,747 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>зм</t>
+          <t>вв</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0.0002555418892127625</v>
+        <v>0.0001375994788068721</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>яе</t>
+          <t>яю</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>8.986088411877362e-05</v>
+        <v>0.0001347913261781604</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>жл</t>
+          <t>дм</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>4.773859468809848e-05</v>
+        <v>0.0001319831735494488</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>нс</t>
+          <t>сш</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0.0005560142204849118</v>
+        <v>0.0001319831735494488</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ге</t>
+          <t>вм</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0.0004324555048215981</v>
+        <v>0.0001291750209207371</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>тл</t>
+          <t>уа</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0.000216227752410799</v>
+        <v>0.0001291750209207371</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>бв</t>
+          <t>ьц</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>0.0001291750209207371</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>пя</t>
+          <t>лч</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0.0003706761469899412</v>
+        <v>0.0001263668682920254</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ущ</t>
+          <t>яг</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0.0002246522102969341</v>
+        <v>0.0001263668682920254</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>хи</t>
+          <t>иу</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0.000328553857559266</v>
+        <v>0.0001235587156633137</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>дь</t>
+          <t>юч</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0.0006037528151730103</v>
+        <v>0.0001235587156633137</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>вт</t>
+          <t>яя</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0.0003004723312721493</v>
+        <v>0.0001235587156633137</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>уи</t>
+          <t>лг</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>3.931413680196346e-05</v>
+        <v>0.0001207505630346021</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>рь</t>
+          <t>ьз</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0.0006121772730591453</v>
+        <v>0.0001207505630346021</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>зр</t>
+          <t>яж</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0.0002808152628711676</v>
+        <v>0.0001179424104058904</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ау</t>
+          <t>ыг</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>9.828534200490864e-05</v>
+        <v>0.0001179424104058904</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>мб</t>
+          <t>кс</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>0.0001179424104058904</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>зя</t>
+          <t>еф</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0.0001881462261236823</v>
+        <v>0.0001179424104058904</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>нф</t>
+          <t>мк</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>7.862827360392692e-05</v>
+        <v>0.000112326105148467</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>фе</t>
+          <t>зк</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0.0004886185573958315</v>
+        <v>0.000112326105148467</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>лж</t>
+          <t>мр</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0.0002246522102969341</v>
+        <v>0.0001095179525197554</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>тп</t>
+          <t>дп</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>8.143642623263859e-05</v>
+        <v>0.0001067097998910437</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ьз</t>
+          <t>пк</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0.0001207505630346021</v>
+        <v>0.0001010934946336203</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>дт</t>
+          <t>бщ</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0.0002218440576682224</v>
+        <v>0.0001010934946336203</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>гк</t>
+          <t>яр</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>6.739566308908021e-05</v>
+        <v>0.0001010934946336203</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>яч</t>
+          <t>ау</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0.0001628728524652772</v>
+        <v>9.828534200490864e-05</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>бс</t>
+          <t>йд</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>7.862827360392692e-05</v>
+        <v>9.828534200490864e-05</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>нч</t>
+          <t>шт</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0.0001797217682375472</v>
+        <v>9.828534200490864e-05</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ют</t>
+          <t>сю</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0.0002780071102424559</v>
+        <v>9.547718937619697e-05</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>лк</t>
+          <t>яе</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0.000415606589049328</v>
+        <v>8.986088411877362e-05</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>зь</t>
+          <t>нг</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0.0001516402419504305</v>
+        <v>8.986088411877362e-05</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>мв</t>
+          <t>ьд</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>8.705273149006194e-05</v>
+        <v>8.986088411877362e-05</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>см</t>
+          <t>ыд</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0.0005925202046581636</v>
+        <v>8.705273149006194e-05</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>бь</t>
+          <t>мв</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0.0001797217682375472</v>
+        <v>8.705273149006194e-05</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>мр</t>
+          <t>иф</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0.0001095179525197554</v>
+        <v>8.143642623263859e-05</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>рм</t>
+          <t>фл</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0.0002274603629256457</v>
+        <v>8.143642623263859e-05</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>шл</t>
+          <t>мм</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0.0004717696416235615</v>
+        <v>8.143642623263859e-05</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>гн</t>
+          <t>тп</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0.0004015658259057696</v>
+        <v>8.143642623263859e-05</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>рп</t>
+          <t>зз</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>6.177935783165686e-05</v>
+        <v>8.143642623263859e-05</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>сш</t>
+          <t>мг</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0.0001319831735494488</v>
+        <v>7.862827360392692e-05</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ун</t>
+          <t xml:space="preserve">ш </t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0.0005307408468265067</v>
+        <v>7.862827360392692e-05</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ех</t>
+          <t>уя</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0.0004184147416780397</v>
+        <v>7.862827360392692e-05</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>гм</t>
+          <t>ьи</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1.12326105148467e-05</v>
+        <v>7.862827360392692e-05</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>оя</t>
+          <t>нф</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0.0004998511679106782</v>
+        <v>7.862827360392692e-05</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ищ</t>
+          <t>бс</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0.0002106114471533757</v>
+        <v>7.862827360392692e-05</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>хл</t>
+          <t>сб</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0.0001628728524652772</v>
+        <v>7.862827360392692e-05</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>пт</t>
+          <t>лб</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0.0001516402419504305</v>
+        <v>7.862827360392692e-05</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>лч</t>
+          <t>тю</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0.0001263668682920254</v>
+        <v>7.582012097521524e-05</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>иб</t>
+          <t>ьг</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0.0005167000836829483</v>
+        <v>7.582012097521524e-05</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>уй</t>
+          <t>пь</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0.0001404076314355838</v>
+        <v>7.582012097521524e-05</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>вч</t>
+          <t>шв</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0.0001432157840642955</v>
+        <v>7.582012097521524e-05</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>юс</t>
+          <t>зж</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0.0001909543787523939</v>
+        <v>7.582012097521524e-05</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>йд</t>
+          <t>ыж</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>9.828534200490864e-05</v>
+        <v>7.301196834650356e-05</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>нв</t>
+          <t>чо</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>4.212228943067513e-05</v>
+        <v>7.301196834650356e-05</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>яз</t>
+          <t>яп</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0.0002415011260692041</v>
+        <v>7.301196834650356e-05</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>оф</t>
+          <t>сц</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0.0003257457049305544</v>
+        <v>7.301196834650356e-05</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>аа</t>
+          <t>ац</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>3.369783154454011e-05</v>
+        <v>7.020381571779189e-05</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>яи</t>
+          <t>дб</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>5.335489994552184e-05</v>
+        <v>7.020381571779189e-05</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>яц</t>
+          <t>тт</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>5.054674731681016e-05</v>
+        <v>7.020381571779189e-05</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>рц</t>
+          <t>пп</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>5.616305257423352e-05</v>
+        <v>7.020381571779189e-05</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>иу</t>
+          <t>жо</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0.0001235587156633137</v>
+        <v>6.739566308908021e-05</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>фо</t>
+          <t>дч</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0.0002471174313266274</v>
+        <v>6.739566308908021e-05</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>рю</t>
+          <t>мт</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0.0002358848208117808</v>
+        <v>6.739566308908021e-05</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>юч</t>
+          <t>гк</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0.0001235587156633137</v>
+        <v>6.739566308908021e-05</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>уб</t>
+          <t>оу</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0.0006655321730046672</v>
+        <v>6.739566308908021e-05</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>кш</t>
+          <t>дж</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>1.12326105148467e-05</v>
+        <v>6.739566308908021e-05</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>вь</t>
+          <t>юх</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0.000511083778425525</v>
+        <v>6.739566308908021e-05</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>мп</t>
+          <t>лп</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0.0001769136156088356</v>
+        <v>6.458751046036854e-05</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ьч</t>
+          <t>рп</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>5.897120520294519e-05</v>
+        <v>6.177935783165686e-05</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>цы</t>
+          <t>ыз</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0.0001769136156088356</v>
+        <v>6.177935783165686e-05</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>яа</t>
+          <t>тф</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>6.177935783165686e-05</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>яг</t>
+          <t>хг</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0.0001263668682920254</v>
+        <v>6.177935783165686e-05</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>йл</t>
+          <t>ьч</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>2.527337365840508e-05</v>
+        <v>5.897120520294519e-05</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>йв</t>
+          <t>йц</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>2.24652210296934e-05</v>
+        <v>5.897120520294519e-05</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>йц</t>
+          <t>рб</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -5898,751 +5898,751 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>юд</t>
+          <t>нз</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0.0002358848208117808</v>
+        <v>5.897120520294519e-05</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>сб</t>
+          <t>лм</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>7.862827360392692e-05</v>
+        <v>5.897120520294519e-05</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>рб</t>
+          <t>лд</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>5.897120520294519e-05</v>
+        <v>5.616305257423352e-05</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>гч</t>
+          <t>нр</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>4.212228943067513e-05</v>
+        <v>5.616305257423352e-05</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>уа</t>
+          <t>рц</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0.0001291750209207371</v>
+        <v>5.616305257423352e-05</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ьг</t>
+          <t>рр</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>7.582012097521524e-05</v>
+        <v>5.616305257423352e-05</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t xml:space="preserve"> щ</t>
+          <t>чр</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0.0001684891577227005</v>
+        <v>5.616305257423352e-05</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>лв</t>
+          <t>хс</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1.965706840098173e-05</v>
+        <v>5.616305257423352e-05</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>пп</t>
+          <t>щн</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>7.020381571779189e-05</v>
+        <v>5.616305257423352e-05</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>лп</t>
+          <t>хе</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>6.458751046036854e-05</v>
+        <v>5.335489994552184e-05</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>лз</t>
+          <t>ао</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>3.088967891582843e-05</v>
+        <v>5.335489994552184e-05</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>сж</t>
+          <t>хм</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>3.650598417325178e-05</v>
+        <v>5.335489994552184e-05</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>лт</t>
+          <t>яи</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0.000216227752410799</v>
+        <v>5.335489994552184e-05</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ящ</t>
+          <t>кж</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0.0003875250627622112</v>
+        <v>5.335489994552184e-05</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>рз</t>
+          <t>ьв</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>4.493044205938681e-05</v>
+        <v>5.335489994552184e-05</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>хш</t>
+          <t>юю</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>2.527337365840508e-05</v>
+        <v>5.054674731681016e-05</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>оу</t>
+          <t>юм</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>6.739566308908021e-05</v>
+        <v>5.054674731681016e-05</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>яп</t>
+          <t>яц</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>7.301196834650356e-05</v>
+        <v>5.054674731681016e-05</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>яя</t>
+          <t>чш</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0.0001235587156633137</v>
+        <v>5.054674731681016e-05</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>зс</t>
+          <t xml:space="preserve">п </t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1.404076314355838e-05</v>
+        <v>4.773859468809848e-05</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>рр</t>
+          <t>зп</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>5.616305257423352e-05</v>
+        <v>4.773859468809848e-05</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>нг</t>
+          <t>жл</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>8.986088411877362e-05</v>
+        <v>4.773859468809848e-05</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t xml:space="preserve">ф </t>
+          <t xml:space="preserve"> ю</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1.965706840098173e-05</v>
+        <v>4.773859468809848e-05</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>цр</t>
+          <t>фу</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>3.369783154454011e-05</v>
+        <v>4.773859468809848e-05</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>лб</t>
+          <t>юн</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>7.862827360392692e-05</v>
+        <v>4.493044205938681e-05</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>цу</t>
+          <t>рз</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0.0001488320893217188</v>
+        <v>4.493044205938681e-05</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ьо</t>
+          <t>тм</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>3.088967891582843e-05</v>
+        <v>4.493044205938681e-05</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>чр</t>
+          <t>цв</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>5.616305257423352e-05</v>
+        <v>4.493044205938681e-05</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>юр</t>
+          <t>нв</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>3.931413680196346e-05</v>
+        <v>4.212228943067513e-05</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>ьм</t>
+          <t>гч</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0.0002555418892127625</v>
+        <v>4.212228943067513e-05</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ю</t>
+          <t>бм</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>4.773859468809848e-05</v>
+        <v>4.212228943067513e-05</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>тш</t>
+          <t>рщ</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>4.212228943067513e-05</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>пч</t>
+          <t>мь</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1.965706840098173e-05</v>
+        <v>4.212228943067513e-05</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>яб</t>
+          <t>юк</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>2.527337365840508e-05</v>
+        <v>3.931413680196346e-05</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>бм</t>
+          <t>сг</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>4.212228943067513e-05</v>
+        <v>3.931413680196346e-05</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>чш</t>
+          <t>йм</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>5.054674731681016e-05</v>
+        <v>3.931413680196346e-05</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>ьл</t>
+          <t>уи</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>3.931413680196346e-05</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>мс</t>
+          <t>юр</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0.0002527337365840508</v>
+        <v>3.931413680196346e-05</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>мч</t>
+          <t>шп</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>3.369783154454011e-05</v>
+        <v>3.931413680196346e-05</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>жб</t>
+          <t>вх</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>2.24652210296934e-05</v>
+        <v>3.931413680196346e-05</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>кж</t>
+          <t>ьб</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>5.335489994552184e-05</v>
+        <v>3.931413680196346e-05</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ощ</t>
+          <t>бх</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0.0002274603629256457</v>
+        <v>3.650598417325178e-05</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ню</t>
+          <t>сж</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>0.0001712973103514122</v>
+        <v>3.650598417325178e-05</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>ып</t>
+          <t>пю</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0.0001404076314355838</v>
+        <v>3.650598417325178e-05</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>юш</t>
+          <t>вц</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>2.808152628711676e-05</v>
+        <v>3.650598417325178e-05</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>зб</t>
+          <t>юл</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0.0001628728524652772</v>
+        <v>3.650598417325178e-05</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>вв</t>
+          <t>яй</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0.0001375994788068721</v>
+        <v>3.650598417325178e-05</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>ыз</t>
+          <t>пс</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>6.177935783165686e-05</v>
+        <v>3.369783154454011e-05</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>жк</t>
+          <t>аа</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0.0001432157840642955</v>
+        <v>3.369783154454011e-05</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>нп</t>
+          <t>цр</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>3.369783154454011e-05</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>пь</t>
+          <t>мч</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>7.582012097521524e-05</v>
+        <v>3.369783154454011e-05</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>нз</t>
+          <t xml:space="preserve">щ </t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>5.897120520294519e-05</v>
+        <v>3.369783154454011e-05</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>пю</t>
+          <t>ьп</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>3.650598417325178e-05</v>
+        <v>3.369783154454011e-05</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>фы</t>
+          <t>жч</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>2.527337365840508e-05</v>
+        <v>3.369783154454011e-05</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>ьв</t>
+          <t>хт</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>5.335489994552184e-05</v>
+        <v>3.369783154454011e-05</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>чл</t>
+          <t>лз</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>3.088967891582843e-05</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>бш</t>
+          <t>ьо</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1.12326105148467e-05</v>
+        <v>3.088967891582843e-05</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>жг</t>
+          <t>юш</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>1.965706840098173e-05</v>
+        <v>2.808152628711676e-05</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t xml:space="preserve">щ </t>
+          <t>эк</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>3.369783154454011e-05</v>
+        <v>2.808152628711676e-05</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>ьп</t>
+          <t>дх</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>3.369783154454011e-05</v>
+        <v>2.808152628711676e-05</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>вц</t>
+          <t>эх</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>3.650598417325178e-05</v>
+        <v>2.808152628711676e-05</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>зз</t>
+          <t>бг</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>8.143642623263859e-05</v>
+        <v>2.808152628711676e-05</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>рщ</t>
+          <t>юц</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>4.212228943067513e-05</v>
+        <v>2.527337365840508e-05</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>йб</t>
+          <t>йл</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>2.527337365840508e-05</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>ыц</t>
+          <t>хш</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>1.404076314355838e-05</v>
+        <v>2.527337365840508e-05</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>цк</t>
+          <t>яб</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>1.404076314355838e-05</v>
+        <v>2.527337365840508e-05</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>бю</t>
+          <t>фы</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>2.24652210296934e-05</v>
+        <v>2.527337365840508e-05</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>хс</t>
+          <t>кз</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>5.616305257423352e-05</v>
+        <v>2.527337365840508e-05</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>тм</t>
+          <t>ыя</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>4.493044205938681e-05</v>
+        <v>2.527337365840508e-05</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>дп</t>
+          <t>яш</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0.0001067097998910437</v>
+        <v>2.527337365840508e-05</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>дд</t>
+          <t>йо</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>2.527337365840508e-05</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>ьд</t>
+          <t>тц</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>8.986088411877362e-05</v>
+        <v>2.527337365840508e-05</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>яу</t>
+          <t>йв</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>1.965706840098173e-05</v>
+        <v>2.24652210296934e-05</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>мь</t>
+          <t>жб</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>4.212228943067513e-05</v>
+        <v>2.24652210296934e-05</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>мц</t>
+          <t>бю</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>2.24652210296934e-05</v>
       </c>
     </row>
     <row r="622">
@@ -6658,67 +6658,67 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>шп</t>
+          <t>тб</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>3.931413680196346e-05</v>
+        <v>2.24652210296934e-05</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>уо</t>
+          <t>йя</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>1.12326105148467e-05</v>
+        <v>2.24652210296934e-05</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>эй</t>
+          <t>сз</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1.404076314355838e-05</v>
+        <v>2.24652210296934e-05</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>ьр</t>
+          <t>жь</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>2.24652210296934e-05</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>сэ</t>
+          <t>фь</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>2.24652210296934e-05</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>кз</t>
+          <t>кц</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>2.527337365840508e-05</v>
+        <v>1.965706840098173e-05</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>жс</t>
+          <t>лв</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -6728,7 +6728,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>оа</t>
+          <t xml:space="preserve">ф </t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -6738,87 +6738,87 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>мф</t>
+          <t>пч</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>1.965706840098173e-05</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>еф</t>
+          <t>жг</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0.0001179424104058904</v>
+        <v>1.965706840098173e-05</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>ыя</t>
+          <t>яу</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>2.527337365840508e-05</v>
+        <v>1.965706840098173e-05</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>жч</t>
+          <t>жс</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>3.369783154454011e-05</v>
+        <v>1.965706840098173e-05</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>вг</t>
+          <t>оа</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>1.965706840098173e-05</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>кк</t>
+          <t>сф</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>1.965706840098173e-05</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>хэ</t>
+          <t>уэ</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>1.965706840098173e-05</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>ьц</t>
+          <t>юв</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>0.0001291750209207371</v>
+        <v>1.965706840098173e-05</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>сф</t>
+          <t>гт</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -6828,207 +6828,207 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>вх</t>
+          <t>эр</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>3.931413680196346e-05</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>шв</t>
+          <t>бв</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>7.582012097521524e-05</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>дж</t>
+          <t>мб</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>6.739566308908021e-05</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>чл</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>9.828534200490864e-05</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>юл</t>
+          <t>йб</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>3.650598417325178e-05</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>мэ</t>
+          <t>вг</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>хх</t>
+          <t>кк</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>юф</t>
+          <t>жж</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>уэ</t>
+          <t>лф</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1.965706840098173e-05</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>уф</t>
+          <t>йи</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0.0001853380734949706</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>дз</t>
+          <t>фт</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>1.12326105148467e-05</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>сц</t>
+          <t>эн</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>7.301196834650356e-05</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>тб</t>
+          <t>мд</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>2.24652210296934e-05</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>нм</t>
+          <t>дг</t>
         </is>
       </c>
       <c r="B653" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>йя</t>
+          <t>юг</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>2.24652210296934e-05</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>нш</t>
+          <t>фс</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>1.684891577227005e-05</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>нж</t>
+          <t>йп</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1.12326105148467e-05</v>
+        <v>1.404076314355838e-05</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>жж</t>
+          <t>зс</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>1.404076314355838e-05</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>зж</t>
+          <t>ыц</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>7.582012097521524e-05</v>
+        <v>1.404076314355838e-05</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>пш</t>
+          <t>цк</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>1.12326105148467e-05</v>
+        <v>1.404076314355838e-05</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ьф</t>
+          <t>эй</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -7038,177 +7038,177 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>чс</t>
+          <t>ьф</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>1.404076314355838e-05</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>юх</t>
+          <t>эл</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>6.739566308908021e-05</v>
+        <v>1.404076314355838e-05</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>ыу</t>
+          <t>вщ</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>1.404076314355838e-05</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>шм</t>
+          <t>щь</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>1.404076314355838e-05</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>яэ</t>
+          <t>аэ</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>1.404076314355838e-05</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>тщ</t>
+          <t>йщ</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>1.404076314355838e-05</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>эг</t>
+          <t>йг</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>1.404076314355838e-05</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>юз</t>
+          <t>гм</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>1.12326105148467e-05</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>сз</t>
+          <t>кш</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>2.24652210296934e-05</v>
+        <v>1.12326105148467e-05</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>тф</t>
+          <t>бш</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>6.177935783165686e-05</v>
+        <v>1.12326105148467e-05</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>лф</t>
+          <t>уо</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>1.12326105148467e-05</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>юв</t>
+          <t>дз</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1.965706840098173e-05</v>
+        <v>1.12326105148467e-05</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>иэ</t>
+          <t>нж</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>1.12326105148467e-05</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>фу</t>
+          <t>пш</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>4.773859468809848e-05</v>
+        <v>1.12326105148467e-05</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>зт</t>
+          <t>уу</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>1.12326105148467e-05</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>эл</t>
+          <t xml:space="preserve">э </t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>1.404076314355838e-05</v>
+        <v>1.12326105148467e-05</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>лм</t>
+          <t>дю</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>5.897120520294519e-05</v>
+        <v>1.12326105148467e-05</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>уу</t>
+          <t>эс</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -7218,27 +7218,27 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>щн</t>
+          <t>тх</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>5.616305257423352e-05</v>
+        <v>1.12326105148467e-05</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>вщ</t>
+          <t>лш</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>1.404076314355838e-05</v>
+        <v>1.12326105148467e-05</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t xml:space="preserve">э </t>
+          <t>жм</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -7248,37 +7248,37 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>яш</t>
+          <t>бб</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>2.527337365840508e-05</v>
+        <v>1.12326105148467e-05</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>бж</t>
+          <t>тг</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>зш</t>
+          <t>хь</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>ьщ</t>
+          <t>зч</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -7288,187 +7288,187 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>йи</t>
+          <t>яа</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>бд</t>
+          <t>ьл</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>щь</t>
+          <t>дд</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>1.404076314355838e-05</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>яй</t>
+          <t>мэ</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>3.650598417325178e-05</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>эф</t>
+          <t>нм</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>аэ</t>
+          <t>нш</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>1.404076314355838e-05</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>дю</t>
+          <t>шм</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>1.12326105148467e-05</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t xml:space="preserve"> й</t>
+          <t>иэ</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>ьб</t>
+          <t>ьщ</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>3.931413680196346e-05</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>фт</t>
+          <t>мш</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>цц</t>
+          <t>чм</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>эк</t>
+          <t>яф</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>2.808152628711676e-05</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>цч</t>
+          <t>гс</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>дх</t>
+          <t>хк</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>2.808152628711676e-05</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>кг</t>
+          <t>нб</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>эс</t>
+          <t>ьа</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1.12326105148467e-05</v>
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>эн</t>
+          <t>цл</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>чз</t>
+          <t>тш</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>хп</t>
+          <t>нп</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -7478,27 +7478,27 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>хб</t>
+          <t>мф</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>йо</t>
+          <t>яэ</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>2.527337365840508e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>бт</t>
+          <t>юз</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -7508,67 +7508,67 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>тх</t>
+          <t>зт</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1.12326105148467e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>мш</t>
+          <t>бж</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>гт</t>
+          <t>бд</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1.965706840098173e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>лш</t>
+          <t>эф</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1.12326105148467e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>ьэ</t>
+          <t>цц</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>цв</t>
+          <t>хп</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>4.493044205938681e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>шр</t>
+          <t>бт</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -7578,7 +7578,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>йф</t>
+          <t>шр</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -7588,27 +7588,27 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>тц</t>
+          <t>йф</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>2.527337365840508e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>хт</t>
+          <t>чп</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>3.369783154454011e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>чп</t>
+          <t>юж</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -7618,137 +7618,137 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>жь</t>
+          <t>фф</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>2.24652210296934e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>эх</t>
+          <t>сщ</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>2.808152628711676e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>чв</t>
+          <t>пц</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>2.808152628711676e-06</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>йщ</t>
+          <t>км</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1.404076314355838e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>мд</t>
+          <t>вб</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>дг</t>
+          <t>ьж</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>юг</t>
+          <t>тз</t>
         </is>
       </c>
       <c r="B725" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>чм</t>
+          <t>чб</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>фс</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>1.684891577227005e-05</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>юж</t>
+          <t>уц</t>
         </is>
       </c>
       <c r="B728" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>яф</t>
+          <t>мц</t>
         </is>
       </c>
       <c r="B729" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>фф</t>
+          <t>ьр</t>
         </is>
       </c>
       <c r="B730" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>сщ</t>
+          <t>сэ</t>
         </is>
       </c>
       <c r="B731" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>цм</t>
+          <t>хэ</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -7758,7 +7758,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>юо</t>
+          <t>хх</t>
         </is>
       </c>
       <c r="B733" t="n">
@@ -7768,7 +7768,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>яо</t>
+          <t>юф</t>
         </is>
       </c>
       <c r="B734" t="n">
@@ -7778,17 +7778,17 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>пц</t>
+          <t>чс</t>
         </is>
       </c>
       <c r="B735" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>жр</t>
+          <t>ыу</t>
         </is>
       </c>
       <c r="B736" t="n">
@@ -7798,7 +7798,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>чг</t>
+          <t>тщ</t>
         </is>
       </c>
       <c r="B737" t="n">
@@ -7808,17 +7808,17 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>гс</t>
+          <t>эг</t>
         </is>
       </c>
       <c r="B738" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>ьу</t>
+          <t>зш</t>
         </is>
       </c>
       <c r="B739" t="n">
@@ -7828,7 +7828,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>еэ</t>
+          <t xml:space="preserve"> й</t>
         </is>
       </c>
       <c r="B740" t="n">
@@ -7838,17 +7838,17 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>хг</t>
+          <t>цч</t>
         </is>
       </c>
       <c r="B741" t="n">
-        <v>6.177935783165686e-05</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>юп</t>
+          <t>кг</t>
         </is>
       </c>
       <c r="B742" t="n">
@@ -7858,7 +7858,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>гп</t>
+          <t>чз</t>
         </is>
       </c>
       <c r="B743" t="n">
@@ -7868,7 +7868,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>зю</t>
+          <t>хб</t>
         </is>
       </c>
       <c r="B744" t="n">
@@ -7878,87 +7878,87 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>бг</t>
+          <t>ьэ</t>
         </is>
       </c>
       <c r="B745" t="n">
-        <v>2.808152628711676e-05</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>хк</t>
+          <t>чв</t>
         </is>
       </c>
       <c r="B746" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>йг</t>
+          <t>цм</t>
         </is>
       </c>
       <c r="B747" t="n">
-        <v>1.404076314355838e-05</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>жм</t>
+          <t>юо</t>
         </is>
       </c>
       <c r="B748" t="n">
-        <v>1.12326105148467e-05</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>км</t>
+          <t>яо</t>
         </is>
       </c>
       <c r="B749" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>вб</t>
+          <t>жр</t>
         </is>
       </c>
       <c r="B750" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>ьж</t>
+          <t>чг</t>
         </is>
       </c>
       <c r="B751" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>нб</t>
+          <t>ьу</t>
         </is>
       </c>
       <c r="B752" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>кб</t>
+          <t>еэ</t>
         </is>
       </c>
       <c r="B753" t="n">
@@ -7968,7 +7968,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>пв</t>
+          <t>юп</t>
         </is>
       </c>
       <c r="B754" t="n">
@@ -7978,17 +7978,17 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>ьа</t>
+          <t>гп</t>
         </is>
       </c>
       <c r="B755" t="n">
-        <v>8.424457886135027e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>фн</t>
+          <t>зю</t>
         </is>
       </c>
       <c r="B756" t="n">
@@ -7998,7 +7998,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>мщ</t>
+          <t>кб</t>
         </is>
       </c>
       <c r="B757" t="n">
@@ -8008,17 +8008,17 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>бб</t>
+          <t>пв</t>
         </is>
       </c>
       <c r="B758" t="n">
-        <v>1.12326105148467e-05</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>щр</t>
+          <t>фн</t>
         </is>
       </c>
       <c r="B759" t="n">
@@ -8028,7 +8028,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>бз</t>
+          <t>мщ</t>
         </is>
       </c>
       <c r="B760" t="n">
@@ -8038,7 +8038,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>кп</t>
+          <t>щр</t>
         </is>
       </c>
       <c r="B761" t="n">
@@ -8048,7 +8048,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>юи</t>
+          <t>бз</t>
         </is>
       </c>
       <c r="B762" t="n">
@@ -8058,7 +8058,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>мз</t>
+          <t>кп</t>
         </is>
       </c>
       <c r="B763" t="n">
@@ -8068,17 +8068,17 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>тз</t>
+          <t>юи</t>
         </is>
       </c>
       <c r="B764" t="n">
-        <v>5.616305257423351e-06</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>що</t>
+          <t>мз</t>
         </is>
       </c>
       <c r="B765" t="n">
@@ -8088,7 +8088,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>гш</t>
+          <t>що</t>
         </is>
       </c>
       <c r="B766" t="n">
@@ -8098,7 +8098,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>фб</t>
+          <t>гш</t>
         </is>
       </c>
       <c r="B767" t="n">
@@ -8108,7 +8108,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>ыа</t>
+          <t>фб</t>
         </is>
       </c>
       <c r="B768" t="n">
@@ -8118,7 +8118,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>ыщ</t>
+          <t>ыа</t>
         </is>
       </c>
       <c r="B769" t="n">
@@ -8128,7 +8128,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>лэ</t>
+          <t>ыщ</t>
         </is>
       </c>
       <c r="B770" t="n">
@@ -8138,7 +8138,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>юя</t>
+          <t>лэ</t>
         </is>
       </c>
       <c r="B771" t="n">
@@ -8148,11 +8148,11 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>фь</t>
+          <t>юя</t>
         </is>
       </c>
       <c r="B772" t="n">
-        <v>2.24652210296934e-05</v>
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="773">
